--- a/objects/Goods.xlsx
+++ b/objects/Goods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cruise\source\repos\Tyuiu.KurbanovFA.Sprint7\objects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D48B22-1309-4E1D-A686-ED7318B10015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABC67F6-8B30-4BE7-BC5F-9250D80C3192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{993DFB0D-6D6F-4B4E-9135-0847133AB397}"/>
   </bookViews>
@@ -36,21 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Код товара</t>
-  </si>
-  <si>
-    <t>Название товара</t>
-  </si>
-  <si>
-    <t>Количество на складе</t>
-  </si>
-  <si>
-    <t>Стоимость единицы товара</t>
-  </si>
-  <si>
-    <t>Описание товара</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Помидоры</t>
+  </si>
+  <si>
+    <t>Вкусные помидоры</t>
+  </si>
+  <si>
+    <t>asfa</t>
+  </si>
+  <si>
+    <t>asfaf</t>
+  </si>
+  <si>
+    <t>Номер товара</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Описание</t>
   </si>
 </sst>
 </file>
@@ -431,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB754E6-912A-4628-8021-D24A8A821F52}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,36 +460,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3">
+        <v>12312</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
